--- a/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CDC04E-6102-49A9-9873-B1234F5BA2DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A120CB7E-57F8-470A-AC60-1D5C9DCF85A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,13 +28,14 @@
     <sheet name="6" sheetId="13" r:id="rId13"/>
     <sheet name="5" sheetId="14" r:id="rId14"/>
     <sheet name="4" sheetId="15" r:id="rId15"/>
+    <sheet name="3" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="36">
   <si>
     <t>Columns on Logic</t>
   </si>
@@ -102,7 +103,7 @@
 Model:                            OLS   Adj. R-squared:                  0.033
 Method:                 Least Squares   F-statistic:                     2.019
 Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00780
-Time:                        22:58:29   Log-Likelihood:                -322.70
+Time:                        23:07:16   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             683.4
 Df Residuals:                     518   BIC:                             764.8
 Df Model:                          18                                         
@@ -145,7 +146,7 @@
 Model:                            OLS   Adj. R-squared:                  0.035
 Method:                 Least Squares   F-statistic:                     2.142
 Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00504
-Time:                        22:58:29   Log-Likelihood:                -322.71
+Time:                        23:07:16   Log-Likelihood:                -322.71
 No. Observations:                 537   AIC:                             681.4
 Df Residuals:                     519   BIC:                             758.6
 Df Model:                          17                                         
@@ -187,7 +188,7 @@
 Model:                            OLS   Adj. R-squared:                  0.037
 Method:                 Least Squares   F-statistic:                     2.280
 Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00316
-Time:                        22:58:29   Log-Likelihood:                -322.71
+Time:                        23:07:16   Log-Likelihood:                -322.71
 No. Observations:                 537   AIC:                             679.4
 Df Residuals:                     520   BIC:                             752.3
 Df Model:                          16                                         
@@ -228,7 +229,7 @@
 Model:                            OLS   Adj. R-squared:                  0.039
 Method:                 Least Squares   F-statistic:                     2.434
 Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00194
-Time:                        22:58:29   Log-Likelihood:                -322.73
+Time:                        23:07:16   Log-Likelihood:                -322.73
 No. Observations:                 537   AIC:                             677.5
 Df Residuals:                     521   BIC:                             746.0
 Df Model:                          15                                         
@@ -268,7 +269,7 @@
 Model:                            OLS   Adj. R-squared:                  0.040
 Method:                 Least Squares   F-statistic:                     2.581
 Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00131
-Time:                        22:58:29   Log-Likelihood:                -322.94
+Time:                        23:07:16   Log-Likelihood:                -322.94
 No. Observations:                 537   AIC:                             675.9
 Df Residuals:                     522   BIC:                             740.2
 Df Model:                          14                                         
@@ -307,7 +308,7 @@
 Model:                            OLS   Adj. R-squared:                  0.040
 Method:                 Least Squares   F-statistic:                     2.718
 Date:                Sun, 22 Dec 2019   Prob (F-statistic):           0.000992
-Time:                        22:58:29   Log-Likelihood:                -323.35
+Time:                        23:07:16   Log-Likelihood:                -323.35
 No. Observations:                 537   AIC:                             674.7
 Df Residuals:                     523   BIC:                             734.7
 Df Model:                          13                                         
@@ -345,7 +346,7 @@
 Model:                            OLS   Adj. R-squared:                  0.041
 Method:                 Least Squares   F-statistic:                     2.925
 Date:                Sun, 22 Dec 2019   Prob (F-statistic):           0.000605
-Time:                        22:58:29   Log-Likelihood:                -323.50
+Time:                        23:07:16   Log-Likelihood:                -323.50
 No. Observations:                 537   AIC:                             673.0
 Df Residuals:                     524   BIC:                             728.7
 Df Model:                          12                                         
@@ -382,7 +383,7 @@
 Model:                            OLS   Adj. R-squared:                  0.040
 Method:                 Least Squares   F-statistic:                     3.052
 Date:                Sun, 22 Dec 2019   Prob (F-statistic):           0.000562
-Time:                        22:58:29   Log-Likelihood:                -324.26
+Time:                        23:07:16   Log-Likelihood:                -324.26
 No. Observations:                 537   AIC:                             672.5
 Df Residuals:                     525   BIC:                             724.0
 Df Model:                          11                                         
@@ -418,7 +419,7 @@
 Model:                            OLS   Adj. R-squared:                  0.039
 Method:                 Least Squares   F-statistic:                     3.150
 Date:                Sun, 22 Dec 2019   Prob (F-statistic):           0.000627
-Time:                        22:58:29   Log-Likelihood:                -325.29
+Time:                        23:07:16   Log-Likelihood:                -325.29
 No. Observations:                 537   AIC:                             672.6
 Df Residuals:                     526   BIC:                             719.7
 Df Model:                          10                                         
@@ -453,7 +454,7 @@
 Model:                            OLS   Adj. R-squared:                  0.036
 Method:                 Least Squares   F-statistic:                     3.196
 Date:                Sun, 22 Dec 2019   Prob (F-statistic):           0.000885
-Time:                        22:58:29   Log-Likelihood:                -326.64
+Time:                        23:07:16   Log-Likelihood:                -326.64
 No. Observations:                 537   AIC:                             673.3
 Df Residuals:                     527   BIC:                             716.1
 Df Model:                           9                                         
@@ -487,7 +488,7 @@
 Model:                            OLS   Adj. R-squared:                  0.033
 Method:                 Least Squares   F-statistic:                     3.272
 Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00119
-Time:                        22:58:29   Log-Likelihood:                -327.92
+Time:                        23:07:16   Log-Likelihood:                -327.92
 No. Observations:                 537   AIC:                             673.8
 Df Residuals:                     528   BIC:                             712.4
 Df Model:                           8                                         
@@ -520,7 +521,7 @@
 Model:                            OLS   Adj. R-squared:                  0.028
 Method:                 Least Squares   F-statistic:                     3.243
 Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00222
-Time:                        22:58:29   Log-Likelihood:                -329.63
+Time:                        23:07:16   Log-Likelihood:                -329.63
 No. Observations:                 537   AIC:                             675.3
 Df Residuals:                     529   BIC:                             709.5
 Df Model:                           7                                         
@@ -552,7 +553,7 @@
 Model:                            OLS   Adj. R-squared:                  0.025
 Method:                 Least Squares   F-statistic:                     3.275
 Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00359
-Time:                        22:58:29   Log-Likelihood:                -331.13
+Time:                        23:07:16   Log-Likelihood:                -331.13
 No. Observations:                 537   AIC:                             676.3
 Df Residuals:                     530   BIC:                             706.3
 Df Model:                           6                                         
@@ -583,7 +584,7 @@
 Model:                            OLS   Adj. R-squared:                  0.022
 Method:                 Least Squares   F-statistic:                     3.428
 Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00466
-Time:                        22:58:29   Log-Likelihood:                -332.38
+Time:                        23:07:16   Log-Likelihood:                -332.38
 No. Observations:                 537   AIC:                             676.8
 Df Residuals:                     531   BIC:                             702.5
 Df Model:                           5                                         
@@ -609,11 +610,40 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
+Dep. Variable:               Desertor   R-squared:                       0.027
+Model:                            OLS   Adj. R-squared:                  0.020
+Method:                 Least Squares   F-statistic:                     3.730
+Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00527
+Time:                        23:07:16   Log-Likelihood:                -333.48
+No. Observations:                 537   AIC:                             677.0
+Df Residuals:                     532   BIC:                             698.4
+Df Model:                           4                                         
+Covariance Type:            nonrobust                                         
+=====================================================================================
+                        coef    std err          t      P&gt;|t|      [0.025      0.975]
+-------------------------------------------------------------------------------------
+Ones                  0.2551      0.095      2.698      0.007       0.069       0.441
+SchoolRegion_1       -0.2378      0.084     -2.822      0.005      -0.403      -0.072
+SchoolRegion_2       -0.1387      0.057     -2.414      0.016      -0.252      -0.026
+SchoolType_2          0.0964      0.073      1.318      0.188      -0.047       0.240
+PostulationType_1     0.1721      0.084      2.051      0.041       0.007       0.337
+==============================================================================
+Omnibus:                      271.153   Durbin-Watson:                   1.935
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               95.390
+Skew:                           0.864   Prob(JB):                     1.93e-21
+Kurtosis:                       1.870   Cond. No.                         10.4
+==============================================================================
+Warnings:
+[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            OLS Regression Results                            
+==============================================================================
 Dep. Variable:               Desertor   R-squared:                       0.024
 Model:                            OLS   Adj. R-squared:                  0.019
 Method:                 Least Squares   F-statistic:                     4.388
 Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00460
-Time:                        22:58:29   Log-Likelihood:                -334.36
+Time:                        23:07:16   Log-Likelihood:                -334.36
 No. Observations:                 537   AIC:                             676.7
 Df Residuals:                     533   BIC:                             693.9
 Df Model:                           3                                         
@@ -1418,12 +1448,54 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="344.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="357" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="344.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A120CB7E-57F8-470A-AC60-1D5C9DCF85A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24823806-F672-4B28-AFC6-17F85DABC5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,8 +102,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.033
 Method:                 Least Squares   F-statistic:                     2.019
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00780
-Time:                        23:07:16   Log-Likelihood:                -322.70
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00780
+Time:                        23:10:04   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             683.4
 Df Residuals:                     518   BIC:                             764.8
 Df Model:                          18                                         
@@ -145,8 +145,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.035
 Method:                 Least Squares   F-statistic:                     2.142
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00504
-Time:                        23:07:16   Log-Likelihood:                -322.71
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00504
+Time:                        23:10:04   Log-Likelihood:                -322.71
 No. Observations:                 537   AIC:                             681.4
 Df Residuals:                     519   BIC:                             758.6
 Df Model:                          17                                         
@@ -187,8 +187,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.037
 Method:                 Least Squares   F-statistic:                     2.280
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00316
-Time:                        23:07:16   Log-Likelihood:                -322.71
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00316
+Time:                        23:10:04   Log-Likelihood:                -322.71
 No. Observations:                 537   AIC:                             679.4
 Df Residuals:                     520   BIC:                             752.3
 Df Model:                          16                                         
@@ -228,8 +228,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.039
 Method:                 Least Squares   F-statistic:                     2.434
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00194
-Time:                        23:07:16   Log-Likelihood:                -322.73
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00194
+Time:                        23:10:04   Log-Likelihood:                -322.73
 No. Observations:                 537   AIC:                             677.5
 Df Residuals:                     521   BIC:                             746.0
 Df Model:                          15                                         
@@ -268,8 +268,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.040
 Method:                 Least Squares   F-statistic:                     2.581
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00131
-Time:                        23:07:16   Log-Likelihood:                -322.94
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00131
+Time:                        23:10:04   Log-Likelihood:                -322.94
 No. Observations:                 537   AIC:                             675.9
 Df Residuals:                     522   BIC:                             740.2
 Df Model:                          14                                         
@@ -307,8 +307,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.063
 Model:                            OLS   Adj. R-squared:                  0.040
 Method:                 Least Squares   F-statistic:                     2.718
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):           0.000992
-Time:                        23:07:16   Log-Likelihood:                -323.35
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):           0.000992
+Time:                        23:10:04   Log-Likelihood:                -323.35
 No. Observations:                 537   AIC:                             674.7
 Df Residuals:                     523   BIC:                             734.7
 Df Model:                          13                                         
@@ -345,8 +345,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.063
 Model:                            OLS   Adj. R-squared:                  0.041
 Method:                 Least Squares   F-statistic:                     2.925
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):           0.000605
-Time:                        23:07:16   Log-Likelihood:                -323.50
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):           0.000605
+Time:                        23:10:04   Log-Likelihood:                -323.50
 No. Observations:                 537   AIC:                             673.0
 Df Residuals:                     524   BIC:                             728.7
 Df Model:                          12                                         
@@ -382,8 +382,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.060
 Model:                            OLS   Adj. R-squared:                  0.040
 Method:                 Least Squares   F-statistic:                     3.052
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):           0.000562
-Time:                        23:07:16   Log-Likelihood:                -324.26
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):           0.000562
+Time:                        23:10:04   Log-Likelihood:                -324.26
 No. Observations:                 537   AIC:                             672.5
 Df Residuals:                     525   BIC:                             724.0
 Df Model:                          11                                         
@@ -418,8 +418,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.057
 Model:                            OLS   Adj. R-squared:                  0.039
 Method:                 Least Squares   F-statistic:                     3.150
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):           0.000627
-Time:                        23:07:16   Log-Likelihood:                -325.29
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):           0.000627
+Time:                        23:10:04   Log-Likelihood:                -325.29
 No. Observations:                 537   AIC:                             672.6
 Df Residuals:                     526   BIC:                             719.7
 Df Model:                          10                                         
@@ -453,8 +453,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.052
 Model:                            OLS   Adj. R-squared:                  0.036
 Method:                 Least Squares   F-statistic:                     3.196
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):           0.000885
-Time:                        23:07:16   Log-Likelihood:                -326.64
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):           0.000885
+Time:                        23:10:04   Log-Likelihood:                -326.64
 No. Observations:                 537   AIC:                             673.3
 Df Residuals:                     527   BIC:                             716.1
 Df Model:                           9                                         
@@ -487,8 +487,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.047
 Model:                            OLS   Adj. R-squared:                  0.033
 Method:                 Least Squares   F-statistic:                     3.272
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00119
-Time:                        23:07:16   Log-Likelihood:                -327.92
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00119
+Time:                        23:10:04   Log-Likelihood:                -327.92
 No. Observations:                 537   AIC:                             673.8
 Df Residuals:                     528   BIC:                             712.4
 Df Model:                           8                                         
@@ -520,8 +520,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.041
 Model:                            OLS   Adj. R-squared:                  0.028
 Method:                 Least Squares   F-statistic:                     3.243
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00222
-Time:                        23:07:16   Log-Likelihood:                -329.63
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00222
+Time:                        23:10:04   Log-Likelihood:                -329.63
 No. Observations:                 537   AIC:                             675.3
 Df Residuals:                     529   BIC:                             709.5
 Df Model:                           7                                         
@@ -552,8 +552,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.036
 Model:                            OLS   Adj. R-squared:                  0.025
 Method:                 Least Squares   F-statistic:                     3.275
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00359
-Time:                        23:07:16   Log-Likelihood:                -331.13
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00359
+Time:                        23:10:04   Log-Likelihood:                -331.13
 No. Observations:                 537   AIC:                             676.3
 Df Residuals:                     530   BIC:                             706.3
 Df Model:                           6                                         
@@ -583,8 +583,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.031
 Model:                            OLS   Adj. R-squared:                  0.022
 Method:                 Least Squares   F-statistic:                     3.428
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00466
-Time:                        23:07:16   Log-Likelihood:                -332.38
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00466
+Time:                        23:10:04   Log-Likelihood:                -332.38
 No. Observations:                 537   AIC:                             676.8
 Df Residuals:                     531   BIC:                             702.5
 Df Model:                           5                                         
@@ -613,8 +613,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.027
 Model:                            OLS   Adj. R-squared:                  0.020
 Method:                 Least Squares   F-statistic:                     3.730
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00527
-Time:                        23:07:16   Log-Likelihood:                -333.48
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00527
+Time:                        23:10:04   Log-Likelihood:                -333.48
 No. Observations:                 537   AIC:                             677.0
 Df Residuals:                     532   BIC:                             698.4
 Df Model:                           4                                         
@@ -642,8 +642,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.024
 Model:                            OLS   Adj. R-squared:                  0.019
 Method:                 Least Squares   F-statistic:                     4.388
-Date:                Sun, 22 Dec 2019   Prob (F-statistic):            0.00460
-Time:                        23:07:16   Log-Likelihood:                -334.36
+Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00460
+Time:                        23:10:04   Log-Likelihood:                -334.36
 No. Observations:                 537   AIC:                             676.7
 Df Residuals:                     533   BIC:                             693.9
 Df Model:                           3                                         

--- a/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24823806-F672-4B28-AFC6-17F85DABC5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB2A500-0534-4767-857A-44D3378C3A88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,15 +27,13 @@
     <sheet name="7" sheetId="12" r:id="rId12"/>
     <sheet name="6" sheetId="13" r:id="rId13"/>
     <sheet name="5" sheetId="14" r:id="rId14"/>
-    <sheet name="4" sheetId="15" r:id="rId15"/>
-    <sheet name="3" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="34">
   <si>
     <t>Columns on Logic</t>
   </si>
@@ -73,6 +71,9 @@
     <t>MotherEd_1</t>
   </si>
   <si>
+    <t>MotherEd_2</t>
+  </si>
+  <si>
     <t>MotherEd_3</t>
   </si>
   <si>
@@ -80,9 +81,6 @@
   </si>
   <si>
     <t>MotherEd_5</t>
-  </si>
-  <si>
-    <t>MotherEd_6</t>
   </si>
   <si>
     <t>MotherEd_7</t>
@@ -102,8 +100,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.033
 Method:                 Least Squares   F-statistic:                     2.019
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00780
-Time:                        23:10:04   Log-Likelihood:                -322.70
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):            0.00780
+Time:                        20:51:38   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             683.4
 Df Residuals:                     518   BIC:                             764.8
 Df Model:                          18                                         
@@ -111,30 +109,30 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.4833      0.316      1.530      0.127      -0.137       1.104
-SchoolRegion_1       -0.2943      0.159     -1.856      0.064      -0.606       0.017
-SchoolRegion_2       -0.1726      0.077     -2.240      0.025      -0.324      -0.021
-SchoolRegion_3       -0.0655      0.115     -0.571      0.568      -0.291       0.160
-EdTypeCode_1         -0.1839      0.106     -1.732      0.084      -0.393       0.025
-EdTypeCode_2         -0.1776      0.147     -1.206      0.228      -0.467       0.112
-SchoolType_1          0.1629      0.289      0.564      0.573      -0.404       0.730
-SchoolType_2          0.1307      0.283      0.461      0.645      -0.426       0.687
-SchoolType_3         -0.0150      0.277     -0.054      0.957      -0.559       0.529
-SchoolType_4          0.0839      0.274      0.306      0.760      -0.455       0.622
-MotherEd_1           -0.0740      0.090     -0.820      0.413      -0.251       0.103
-MotherEd_2           -0.0070      0.136     -0.051      0.959      -0.274       0.260
-MotherEd_3           -0.1830      0.094     -1.953      0.051      -0.367       0.001
-MotherEd_4           -0.2541      0.117     -2.179      0.030      -0.483      -0.025
-MotherEd_5           -0.2500      0.138     -1.811      0.071      -0.521       0.021
-MotherEd_6           -0.0812      0.103     -0.788      0.431      -0.284       0.121
-MotherEd_7           -0.1842      0.107     -1.722      0.086      -0.394       0.026
+Ones                 -0.0861      0.232     -0.371      0.711      -0.542       0.370
+SchoolRegion_1        0.1216      0.173      0.702      0.483      -0.219       0.462
+SchoolRegion_2        0.2943      0.159      1.856      0.064      -0.017       0.606
+SchoolRegion_3        0.2288      0.192      1.189      0.235      -0.149       0.607
+EdTypeCode_1          0.0063      0.111      0.057      0.955      -0.212       0.224
+EdTypeCode_2          0.1839      0.106      1.732      0.084      -0.025       0.393
+SchoolType_1         -0.0322      0.114     -0.281      0.779      -0.257       0.193
+SchoolType_2         -0.1779      0.098     -1.807      0.071      -0.371       0.015
+SchoolType_3         -0.0790      0.093     -0.849      0.396      -0.262       0.104
+SchoolType_4         -0.1629      0.289     -0.564      0.573      -0.730       0.404
+MotherEd_1            0.0699      0.105      0.666      0.506      -0.136       0.276
+MotherEd_2            0.0711      0.091      0.782      0.435      -0.108       0.250
+MotherEd_3            0.2471      0.134      1.844      0.066      -0.016       0.510
+MotherEd_4            0.1800      0.088      2.047      0.041       0.007       0.353
+MotherEd_5            0.1729      0.101      1.710      0.088      -0.026       0.372
+MotherEd_6            0.0041      0.136      0.030      0.976      -0.263       0.271
+MotherEd_7            0.2541      0.117      2.179      0.030       0.025       0.483
 Campus_1              0.0296      0.160      0.185      0.853      -0.284       0.344
 PostulationType_1     0.2157      0.088      2.450      0.015       0.043       0.389
 ==============================================================================
 Omnibus:                      176.536   Durbin-Watson:                   1.931
 Prob(Omnibus):                  0.000   Jarque-Bera (JB):               83.367
 Skew:                           0.815   Prob(JB):                     7.89e-19
-Kurtosis:                       1.966   Cond. No.                         64.6
+Kurtosis:                       1.966   Cond. No.                         35.6
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -145,8 +143,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.035
 Method:                 Least Squares   F-statistic:                     2.142
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00504
-Time:                        23:10:04   Log-Likelihood:                -322.71
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):            0.00504
+Time:                        20:51:38   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             681.4
 Df Residuals:                     519   BIC:                             758.6
 Df Model:                          17                                         
@@ -154,29 +152,29 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.4808      0.312      1.543      0.123      -0.131       1.093
-SchoolRegion_1       -0.2946      0.158     -1.862      0.063      -0.606       0.016
-SchoolRegion_2       -0.1725      0.077     -2.242      0.025      -0.324      -0.021
-SchoolRegion_3       -0.0653      0.115     -0.571      0.569      -0.290       0.160
-EdTypeCode_1         -0.1840      0.106     -1.734      0.084      -0.392       0.024
-EdTypeCode_2         -0.1779      0.147     -1.210      0.227      -0.467       0.111
-SchoolType_1          0.1629      0.289      0.565      0.573      -0.404       0.730
-SchoolType_2          0.1307      0.283      0.462      0.645      -0.425       0.687
-SchoolType_3         -0.0151      0.277     -0.054      0.957      -0.559       0.529
-SchoolType_4          0.0836      0.274      0.305      0.760      -0.454       0.622
-MotherEd_1           -0.0714      0.074     -0.964      0.336      -0.217       0.074
-MotherEd_3           -0.1803      0.078     -2.320      0.021      -0.333      -0.028
-MotherEd_4           -0.2514      0.104     -2.412      0.016      -0.456      -0.047
-MotherEd_5           -0.2474      0.128     -1.936      0.053      -0.498       0.004
-MotherEd_6           -0.0786      0.089     -0.879      0.380      -0.254       0.097
-MotherEd_7           -0.1816      0.094     -1.939      0.053      -0.366       0.002
-Campus_1              0.0300      0.160      0.188      0.851      -0.283       0.343
-PostulationType_1     0.2157      0.088      2.452      0.015       0.043       0.389
-==============================================================================
-Omnibus:                      176.513   Durbin-Watson:                   1.931
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               83.362
-Skew:                           0.815   Prob(JB):                     7.91e-19
-Kurtosis:                       1.966   Cond. No.                         64.5
+Ones                 -0.0844      0.225     -0.376      0.707      -0.526       0.357
+SchoolRegion_1        0.1214      0.173      0.702      0.483      -0.218       0.461
+SchoolRegion_2        0.2940      0.158      1.858      0.064      -0.017       0.605
+SchoolRegion_3        0.2286      0.192      1.190      0.235      -0.149       0.606
+EdTypeCode_1          0.0064      0.111      0.058      0.954      -0.211       0.224
+EdTypeCode_2          0.1840      0.106      1.734      0.084      -0.024       0.392
+SchoolType_1         -0.0322      0.114     -0.282      0.778      -0.257       0.192
+SchoolType_2         -0.1779      0.098     -1.809      0.071      -0.371       0.015
+SchoolType_3         -0.0791      0.093     -0.851      0.395      -0.262       0.103
+SchoolType_4         -0.1630      0.288     -0.565      0.572      -0.730       0.404
+MotherEd_1            0.0684      0.093      0.735      0.462      -0.114       0.251
+MotherEd_2            0.0697      0.077      0.903      0.367      -0.082       0.221
+MotherEd_3            0.2457      0.125      1.965      0.050    9.73e-05       0.491
+MotherEd_4            0.1786      0.073      2.432      0.015       0.034       0.323
+MotherEd_5            0.1714      0.089      1.936      0.053      -0.002       0.345
+MotherEd_7            0.2527      0.106      2.380      0.018       0.044       0.461
+Campus_1              0.0295      0.160      0.185      0.854      -0.284       0.343
+PostulationType_1     0.2157      0.088      2.453      0.015       0.043       0.389
+==============================================================================
+Omnibus:                      176.779   Durbin-Watson:                   1.931
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               83.368
+Skew:                           0.815   Prob(JB):                     7.89e-19
+Kurtosis:                       1.966   Cond. No.                         35.2
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -187,8 +185,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.037
 Method:                 Least Squares   F-statistic:                     2.280
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00316
-Time:                        23:10:04   Log-Likelihood:                -322.71
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):            0.00316
+Time:                        20:51:38   Log-Likelihood:                -322.71
 No. Observations:                 537   AIC:                             679.4
 Df Residuals:                     520   BIC:                             752.3
 Df Model:                          16                                         
@@ -196,28 +194,28 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.4664      0.166      2.807      0.005       0.140       0.793
-SchoolRegion_1       -0.2944      0.158     -1.863      0.063      -0.605       0.016
-SchoolRegion_2       -0.1725      0.077     -2.244      0.025      -0.324      -0.021
-SchoolRegion_3       -0.0649      0.114     -0.569      0.570      -0.289       0.159
-EdTypeCode_1         -0.1848      0.105     -1.761      0.079      -0.391       0.021
-EdTypeCode_2         -0.1771      0.146     -1.212      0.226      -0.464       0.110
-SchoolType_1          0.1777      0.098      1.811      0.071      -0.015       0.370
-SchoolType_2          0.1454      0.082      1.763      0.078      -0.017       0.307
-SchoolType_4          0.0983      0.047      2.097      0.036       0.006       0.190
-MotherEd_1           -0.0713      0.074     -0.963      0.336      -0.217       0.074
-MotherEd_3           -0.1801      0.078     -2.322      0.021      -0.333      -0.028
-MotherEd_4           -0.2514      0.104     -2.414      0.016      -0.456      -0.047
-MotherEd_5           -0.2474      0.128     -1.938      0.053      -0.498       0.003
-MotherEd_6           -0.0786      0.089     -0.880      0.379      -0.254       0.097
-MotherEd_7           -0.1816      0.094     -1.940      0.053      -0.365       0.002
-Campus_1              0.0297      0.159      0.186      0.852      -0.283       0.343
-PostulationType_1     0.2159      0.088      2.460      0.014       0.044       0.388
-==============================================================================
-Omnibus:                      176.660   Durbin-Watson:                   1.930
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               83.349
-Skew:                           0.815   Prob(JB):                     7.96e-19
-Kurtosis:                       1.966   Cond. No.                         24.0
+Ones                 -0.0851      0.224     -0.380      0.704      -0.525       0.355
+SchoolRegion_1        0.1222      0.172      0.710      0.478      -0.216       0.460
+SchoolRegion_2        0.2948      0.158      1.870      0.062      -0.015       0.604
+SchoolRegion_3        0.2293      0.192      1.197      0.232      -0.147       0.606
+EdTypeCode_2          0.1835      0.106      1.736      0.083      -0.024       0.391
+SchoolType_1         -0.0322      0.114     -0.282      0.778      -0.256       0.192
+SchoolType_2         -0.1778      0.098     -1.810      0.071      -0.371       0.015
+SchoolType_3         -0.0787      0.093     -0.850      0.396      -0.261       0.103
+SchoolType_4         -0.1585      0.278     -0.571      0.568      -0.704       0.387
+MotherEd_1            0.0683      0.093      0.735      0.463      -0.114       0.251
+MotherEd_2            0.0696      0.077      0.903      0.367      -0.082       0.221
+MotherEd_3            0.2461      0.125      1.973      0.049       0.001       0.491
+MotherEd_4            0.1785      0.073      2.433      0.015       0.034       0.323
+MotherEd_5            0.1712      0.088      1.938      0.053      -0.002       0.345
+MotherEd_7            0.2526      0.106      2.382      0.018       0.044       0.461
+Campus_1              0.0301      0.159      0.189      0.850      -0.282       0.343
+PostulationType_1     0.2157      0.088      2.454      0.014       0.043       0.388
+==============================================================================
+Omnibus:                      176.698   Durbin-Watson:                   1.931
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               83.375
+Skew:                           0.815   Prob(JB):                     7.86e-19
+Kurtosis:                       1.966   Cond. No.                         35.0
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -228,8 +226,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.039
 Method:                 Least Squares   F-statistic:                     2.434
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00194
-Time:                        23:10:04   Log-Likelihood:                -322.73
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):            0.00194
+Time:                        20:51:38   Log-Likelihood:                -322.73
 No. Observations:                 537   AIC:                             677.5
 Df Residuals:                     521   BIC:                             746.0
 Df Model:                          15                                         
@@ -237,27 +235,27 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.4747      0.160      2.967      0.003       0.160       0.789
-SchoolRegion_1       -0.2706      0.093     -2.898      0.004      -0.454      -0.087
-SchoolRegion_2       -0.1782      0.070     -2.529      0.012      -0.317      -0.040
-SchoolRegion_3       -0.0704      0.110     -0.640      0.523      -0.287       0.146
-EdTypeCode_1         -0.1875      0.104     -1.806      0.071      -0.391       0.016
-EdTypeCode_2         -0.1787      0.146     -1.226      0.221      -0.465       0.108
-SchoolType_1          0.1790      0.098      1.831      0.068      -0.013       0.371
-SchoolType_2          0.1467      0.082      1.788      0.074      -0.015       0.308
-SchoolType_4          0.0985      0.047      2.103      0.036       0.007       0.190
-MotherEd_1           -0.0712      0.074     -0.963      0.336      -0.216       0.074
-MotherEd_3           -0.1798      0.077     -2.321      0.021      -0.332      -0.028
-MotherEd_4           -0.2508      0.104     -2.412      0.016      -0.455      -0.046
-MotherEd_5           -0.2477      0.128     -1.942      0.053      -0.498       0.003
-MotherEd_6           -0.0785      0.089     -0.880      0.379      -0.254       0.097
-MotherEd_7           -0.1808      0.093     -1.936      0.053      -0.364       0.003
-PostulationType_1     0.2155      0.088      2.459      0.014       0.043       0.388
-==============================================================================
-Omnibus:                      176.545   Durbin-Watson:                   1.931
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               83.305
-Skew:                           0.815   Prob(JB):                     8.14e-19
-Kurtosis:                       1.966   Cond. No.                         22.4
+Ones                 -0.0539      0.152     -0.356      0.722      -0.352       0.244
+SchoolRegion_1        0.0924      0.069      1.333      0.183      -0.044       0.229
+SchoolRegion_2        0.2708      0.093      2.904      0.004       0.088       0.454
+SchoolRegion_3        0.1997      0.110      1.813      0.070      -0.017       0.416
+EdTypeCode_2          0.1862      0.105      1.781      0.076      -0.019       0.392
+SchoolType_1         -0.0321      0.114     -0.282      0.778      -0.256       0.192
+SchoolType_2         -0.1791      0.098     -1.829      0.068      -0.371       0.013
+SchoolType_3         -0.0797      0.092     -0.863      0.388      -0.261       0.102
+SchoolType_4         -0.1603      0.277     -0.579      0.563      -0.705       0.384
+MotherEd_1            0.0687      0.093      0.741      0.459      -0.114       0.251
+MotherEd_2            0.0697      0.077      0.905      0.366      -0.082       0.221
+MotherEd_3            0.2452      0.125      1.969      0.049       0.001       0.490
+MotherEd_4            0.1783      0.073      2.433      0.015       0.034       0.322
+MotherEd_5            0.1709      0.088      1.937      0.053      -0.002       0.344
+MotherEd_7            0.2527      0.106      2.385      0.017       0.045       0.461
+PostulationType_1     0.2152      0.088      2.453      0.015       0.043       0.388
+==============================================================================
+Omnibus:                      176.524   Durbin-Watson:                   1.932
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               83.330
+Skew:                           0.815   Prob(JB):                     8.04e-19
+Kurtosis:                       1.966   Cond. No.                         26.7
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -267,36 +265,36 @@
 ==============================================================================
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.040
-Method:                 Least Squares   F-statistic:                     2.581
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00131
-Time:                        23:10:04   Log-Likelihood:                -322.94
-No. Observations:                 537   AIC:                             675.9
-Df Residuals:                     522   BIC:                             740.2
+Method:                 Least Squares   F-statistic:                     2.607
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):            0.00117
+Time:                        20:51:38   Log-Likelihood:                -322.77
+No. Observations:                 537   AIC:                             675.5
+Df Residuals:                     522   BIC:                             739.8
 Df Model:                          14                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.4504      0.155      2.900      0.004       0.145       0.755
-SchoolRegion_1       -0.2451      0.084     -2.905      0.004      -0.411      -0.079
-SchoolRegion_2       -0.1520      0.057     -2.653      0.008      -0.265      -0.039
-EdTypeCode_1         -0.1885      0.104     -1.817      0.070      -0.392       0.015
-EdTypeCode_2         -0.1796      0.146     -1.233      0.218      -0.466       0.106
-SchoolType_1          0.1779      0.098      1.821      0.069      -0.014       0.370
-SchoolType_2          0.1523      0.082      1.867      0.062      -0.008       0.313
-SchoolType_4          0.1002      0.047      2.145      0.032       0.008       0.192
-MotherEd_1           -0.0737      0.074     -0.999      0.318      -0.219       0.071
-MotherEd_3           -0.1795      0.077     -2.318      0.021      -0.332      -0.027
-MotherEd_4           -0.2521      0.104     -2.426      0.016      -0.456      -0.048
-MotherEd_5           -0.2498      0.127     -1.960      0.050      -0.500       0.001
-MotherEd_6           -0.0803      0.089     -0.902      0.368      -0.255       0.095
-MotherEd_7           -0.1816      0.093     -1.946      0.052      -0.365       0.002
-PostulationType_1     0.2145      0.088      2.449      0.015       0.042       0.387
-==============================================================================
-Omnibus:                      178.723   Durbin-Watson:                   1.932
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               83.493
-Skew:                           0.815   Prob(JB):                     7.41e-19
-Kurtosis:                       1.963   Cond. No.                         22.1
+Ones                 -0.0746      0.132     -0.564      0.573      -0.335       0.185
+SchoolRegion_1        0.0947      0.069      1.377      0.169      -0.040       0.230
+SchoolRegion_2        0.2713      0.093      2.913      0.004       0.088       0.454
+SchoolRegion_3        0.2030      0.109      1.857      0.064      -0.012       0.418
+EdTypeCode_2          0.1840      0.104      1.766      0.078      -0.021       0.389
+SchoolType_2         -0.1595      0.069     -2.311      0.021      -0.295      -0.024
+SchoolType_3         -0.0601      0.060     -0.994      0.321      -0.179       0.059
+SchoolType_4         -0.1406      0.268     -0.525      0.600      -0.667       0.386
+MotherEd_1            0.0673      0.093      0.727      0.467      -0.115       0.249
+MotherEd_2            0.0687      0.077      0.893      0.372      -0.082       0.220
+MotherEd_3            0.2429      0.124      1.957      0.051      -0.001       0.487
+MotherEd_4            0.1770      0.073      2.423      0.016       0.033       0.321
+MotherEd_5            0.1703      0.088      1.933      0.054      -0.003       0.343
+MotherEd_7            0.2508      0.106      2.374      0.018       0.043       0.458
+PostulationType_1     0.2155      0.088      2.458      0.014       0.043       0.388
+==============================================================================
+Omnibus:                      177.570   Durbin-Watson:                   1.932
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               83.402
+Skew:                           0.815   Prob(JB):                     7.75e-19
+Kurtosis:                       1.964   Cond. No.                         25.1
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -304,362 +302,304 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.063
-Model:                            OLS   Adj. R-squared:                  0.040
-Method:                 Least Squares   F-statistic:                     2.718
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           0.000992
-Time:                        23:10:04   Log-Likelihood:                -323.35
-No. Observations:                 537   AIC:                             674.7
-Df Residuals:                     523   BIC:                             734.7
+Dep. Variable:               Desertor   R-squared:                       0.065
+Model:                            OLS   Adj. R-squared:                  0.042
+Method:                 Least Squares   F-statistic:                     2.790
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           0.000727
+Time:                        20:51:38   Log-Likelihood:                -322.91
+No. Observations:                 537   AIC:                             673.8
+Df Residuals:                     523   BIC:                             733.8
 Df Model:                          13                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.4075      0.148      2.757      0.006       0.117       0.698
-SchoolRegion_1       -0.2472      0.084     -2.932      0.004      -0.413      -0.082
-SchoolRegion_2       -0.1522      0.057     -2.656      0.008      -0.265      -0.040
-EdTypeCode_1         -0.1951      0.103     -1.886      0.060      -0.398       0.008
-EdTypeCode_2         -0.1790      0.146     -1.229      0.219      -0.465       0.107
-SchoolType_1          0.1844      0.097      1.894      0.059      -0.007       0.376
-SchoolType_2          0.1652      0.080      2.058      0.040       0.007       0.323
-SchoolType_4          0.1063      0.046      2.301      0.022       0.016       0.197
-MotherEd_1           -0.0288      0.054     -0.529      0.597      -0.136       0.078
-MotherEd_3           -0.1357      0.060     -2.251      0.025      -0.254      -0.017
-MotherEd_4           -0.2086      0.092     -2.267      0.024      -0.389      -0.028
-MotherEd_5           -0.2053      0.117     -1.748      0.081      -0.436       0.025
-MotherEd_7           -0.1354      0.078     -1.736      0.083      -0.289       0.018
-PostulationType_1     0.2139      0.088      2.443      0.015       0.042       0.386
-==============================================================================
-Omnibus:                      185.966   Durbin-Watson:                   1.926
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               83.767
-Skew:                           0.813   Prob(JB):                     6.46e-19
-Kurtosis:                       1.952   Cond. No.                         20.9
+Ones                 -0.0766      0.132     -0.579      0.563      -0.336       0.183
+SchoolRegion_1        0.0935      0.069      1.361      0.174      -0.041       0.228
+SchoolRegion_2        0.2710      0.093      2.911      0.004       0.088       0.454
+SchoolRegion_3        0.1971      0.109      1.813      0.070      -0.016       0.411
+EdTypeCode_2          0.1776      0.103      1.718      0.086      -0.026       0.381
+SchoolType_2         -0.1535      0.068     -2.257      0.024      -0.287      -0.020
+SchoolType_3         -0.0543      0.059     -0.914      0.361      -0.171       0.062
+MotherEd_1            0.0660      0.092      0.714      0.476      -0.116       0.248
+MotherEd_2            0.0671      0.077      0.874      0.382      -0.084       0.218
+MotherEd_3            0.2422      0.124      1.953      0.051      -0.001       0.486
+MotherEd_4            0.1753      0.073      2.403      0.017       0.032       0.319
+MotherEd_5            0.1691      0.088      1.921      0.055      -0.004       0.342
+MotherEd_7            0.2512      0.106      2.379      0.018       0.044       0.459
+PostulationType_1     0.2143      0.088      2.447      0.015       0.042       0.386
+==============================================================================
+Omnibus:                      178.238   Durbin-Watson:                   1.935
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               83.636
+Skew:                           0.816   Prob(JB):                     6.90e-19
+Kurtosis:                       1.964   Cond. No.                         17.9
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.063
-Model:                            OLS   Adj. R-squared:                  0.041
-Method:                 Least Squares   F-statistic:                     2.925
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           0.000605
-Time:                        23:10:04   Log-Likelihood:                -323.50
-No. Observations:                 537   AIC:                             673.0
-Df Residuals:                     524   BIC:                             728.7
-Df Model:                          12                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
+Model:                            OLS   Adj. R-squared (uncentered):              0.325
+Method:                 Least Squares   F-statistic:                              20.89
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    6.53e-40
+Time:                        20:51:38   Log-Likelihood:                         -323.08
+No. Observations:                 537   AIC:                                      672.2
+Df Residuals:                     524   BIC:                                      727.9
+Df Model:                          13                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.3776      0.137      2.766      0.006       0.109       0.646
-SchoolRegion_1       -0.2471      0.084     -2.932      0.004      -0.413      -0.082
-SchoolRegion_2       -0.1520      0.057     -2.655      0.008      -0.265      -0.040
-EdTypeCode_1         -0.1935      0.103     -1.872      0.062      -0.396       0.010
-EdTypeCode_2         -0.1781      0.145     -1.224      0.222      -0.464       0.108
-SchoolType_1          0.1828      0.097      1.879      0.061      -0.008       0.374
-SchoolType_2          0.1636      0.080      2.040      0.042       0.006       0.321
-SchoolType_4          0.1057      0.046      2.289      0.022       0.015       0.196
-MotherEd_3           -0.1175      0.049     -2.376      0.018      -0.215      -0.020
-MotherEd_4           -0.1903      0.085     -2.233      0.026      -0.358      -0.023
-MotherEd_5           -0.1870      0.112     -1.667      0.096      -0.407       0.033
-MotherEd_7           -0.1175      0.070     -1.673      0.095      -0.255       0.020
-PostulationType_1     0.2247      0.085      2.639      0.009       0.057       0.392
-==============================================================================
-Omnibus:                      186.401   Durbin-Watson:                   1.928
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               83.802
-Skew:                           0.813   Prob(JB):                     6.35e-19
-Kurtosis:                       1.952   Cond. No.                         20.0
+SchoolRegion_1        0.0778      0.063      1.234      0.218      -0.046       0.202
+SchoolRegion_2        0.2543      0.088      2.875      0.004       0.081       0.428
+SchoolRegion_3        0.1813      0.105      1.724      0.085      -0.025       0.388
+EdTypeCode_2          0.1691      0.102      1.653      0.099      -0.032       0.370
+SchoolType_2         -0.1665      0.064     -2.593      0.010      -0.293      -0.040
+SchoolType_3         -0.0673      0.055     -1.225      0.221      -0.175       0.041
+MotherEd_1            0.0498      0.088      0.565      0.572      -0.123       0.223
+MotherEd_2            0.0494      0.070      0.702      0.483      -0.089       0.188
+MotherEd_3            0.2252      0.120      1.870      0.062      -0.011       0.462
+MotherEd_4            0.1533      0.062      2.462      0.014       0.031       0.276
+MotherEd_5            0.1530      0.083      1.833      0.067      -0.011       0.317
+MotherEd_7            0.2337      0.101      2.311      0.021       0.035       0.432
+PostulationType_1     0.1809      0.066      2.744      0.006       0.051       0.310
+==============================================================================
+Omnibus:                      182.498   Durbin-Watson:                   1.935
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               85.388
+Skew:                           0.826   Prob(JB):                     2.87e-19
+Kurtosis:                       1.959   Cond. No.                         12.9
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.060
-Model:                            OLS   Adj. R-squared:                  0.040
-Method:                 Least Squares   F-statistic:                     3.052
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           0.000562
-Time:                        23:10:04   Log-Likelihood:                -324.26
-No. Observations:                 537   AIC:                             672.5
-Df Residuals:                     525   BIC:                             724.0
-Df Model:                          11                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
+Model:                            OLS   Adj. R-squared (uncentered):              0.326
+Method:                 Least Squares   F-statistic:                              22.63
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.56e-40
+Time:                        20:51:38   Log-Likelihood:                         -323.24
+No. Observations:                 537   AIC:                                      670.5
+Df Residuals:                     525   BIC:                                      721.9
+Df Model:                          12                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.2943      0.118      2.486      0.013       0.062       0.527
-SchoolRegion_1       -0.2379      0.084     -2.833      0.005      -0.403      -0.073
-SchoolRegion_2       -0.1496      0.057     -2.614      0.009      -0.262      -0.037
-EdTypeCode_1         -0.1064      0.075     -1.419      0.157      -0.254       0.041
-SchoolType_1          0.1821      0.097      1.871      0.062      -0.009       0.373
-SchoolType_2          0.1699      0.080      2.122      0.034       0.013       0.327
-SchoolType_4          0.1024      0.046      2.220      0.027       0.012       0.193
-MotherEd_3           -0.1206      0.049     -2.442      0.015      -0.218      -0.024
-MotherEd_4           -0.1879      0.085     -2.205      0.028      -0.355      -0.020
-MotherEd_5           -0.1882      0.112     -1.677      0.094      -0.409       0.032
-MotherEd_7           -0.1180      0.070     -1.680      0.094      -0.256       0.020
-PostulationType_1     0.2202      0.085      2.588      0.010       0.053       0.387
-==============================================================================
-Omnibus:                      194.588   Durbin-Watson:                   1.924
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               84.457
-Skew:                           0.814   Prob(JB):                     4.57e-19
-Kurtosis:                       1.941   Cond. No.                         14.5
+SchoolRegion_1        0.0830      0.062      1.332      0.184      -0.039       0.206
+SchoolRegion_2        0.2591      0.088      2.944      0.003       0.086       0.432
+SchoolRegion_3        0.1848      0.105      1.762      0.079      -0.021       0.391
+EdTypeCode_2          0.1693      0.102      1.656      0.098      -0.032       0.370
+SchoolType_2         -0.1567      0.062     -2.535      0.012      -0.278      -0.035
+SchoolType_3         -0.0605      0.054     -1.130      0.259      -0.166       0.045
+MotherEd_2            0.0281      0.059      0.473      0.636      -0.089       0.145
+MotherEd_3            0.2039      0.114      1.783      0.075      -0.021       0.428
+MotherEd_4            0.1328      0.051      2.624      0.009       0.033       0.232
+MotherEd_5            0.1297      0.073      1.787      0.074      -0.013       0.272
+MotherEd_7            0.2123      0.094      2.266      0.024       0.028       0.396
+PostulationType_1     0.1916      0.063      3.034      0.003       0.068       0.316
+==============================================================================
+Omnibus:                      185.120   Durbin-Watson:                   1.936
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               85.092
+Skew:                           0.823   Prob(JB):                     3.33e-19
+Kurtosis:                       1.955   Cond. No.                         10.5
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.057
-Model:                            OLS   Adj. R-squared:                  0.039
-Method:                 Least Squares   F-statistic:                     3.150
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           0.000627
-Time:                        23:10:04   Log-Likelihood:                -325.29
-No. Observations:                 537   AIC:                             672.6
-Df Residuals:                     526   BIC:                             719.7
-Df Model:                          10                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
+Model:                            OLS   Adj. R-squared (uncentered):              0.327
+Method:                 Least Squares   F-statistic:                              24.70
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    3.40e-41
+Time:                        20:51:38   Log-Likelihood:                         -323.36
+No. Observations:                 537   AIC:                                      668.7
+Df Residuals:                     526   BIC:                                      715.9
+Df Model:                          11                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.1975      0.097      2.039      0.042       0.007       0.388
-SchoolRegion_1       -0.2361      0.084     -2.809      0.005      -0.401      -0.071
-SchoolRegion_2       -0.1474      0.057     -2.573      0.010      -0.260      -0.035
-SchoolType_1          0.1765      0.097      1.813      0.070      -0.015       0.368
-SchoolType_2          0.1747      0.080      2.182      0.030       0.017       0.332
-SchoolType_4          0.1062      0.046      2.304      0.022       0.016       0.197
-MotherEd_3           -0.1213      0.049     -2.452      0.015      -0.218      -0.024
-MotherEd_4           -0.1853      0.085     -2.173      0.030      -0.353      -0.018
-MotherEd_5           -0.1826      0.112     -1.626      0.105      -0.403       0.038
-MotherEd_7           -0.1211      0.070     -1.723      0.086      -0.259       0.017
-PostulationType_1     0.2138      0.085      2.514      0.012       0.047       0.381
-==============================================================================
-Omnibus:                      201.590   Durbin-Watson:                   1.943
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               85.507
-Skew:                           0.819   Prob(JB):                     2.71e-19
-Kurtosis:                       1.933   Cond. No.                         11.5
+SchoolRegion_1        0.0880      0.061      1.432      0.153      -0.033       0.209
+SchoolRegion_2        0.2676      0.086      3.109      0.002       0.099       0.437
+SchoolRegion_3        0.1908      0.104      1.833      0.067      -0.014       0.395
+EdTypeCode_2          0.1691      0.102      1.656      0.098      -0.032       0.370
+SchoolType_2         -0.1567      0.062     -2.536      0.011      -0.278      -0.035
+SchoolType_3         -0.0582      0.053     -1.092      0.275      -0.163       0.046
+MotherEd_3            0.1889      0.110      1.721      0.086      -0.027       0.405
+MotherEd_4            0.1197      0.042      2.828      0.005       0.037       0.203
+MotherEd_5            0.1156      0.066      1.749      0.081      -0.014       0.245
+MotherEd_7            0.1977      0.088      2.236      0.026       0.024       0.371
+PostulationType_1     0.1997      0.061      3.291      0.001       0.081       0.319
+==============================================================================
+Omnibus:                      184.528   Durbin-Watson:                   1.936
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               84.786
+Skew:                           0.821   Prob(JB):                     3.88e-19
+Kurtosis:                       1.955   Cond. No.                         9.86
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.052
-Model:                            OLS   Adj. R-squared:                  0.036
-Method:                 Least Squares   F-statistic:                     3.196
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           0.000885
-Time:                        23:10:04   Log-Likelihood:                -326.64
-No. Observations:                 537   AIC:                             673.3
-Df Residuals:                     527   BIC:                             716.1
-Df Model:                           9                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.339
+Model:                            OLS   Adj. R-squared (uncentered):              0.327
+Method:                 Least Squares   F-statistic:                              27.04
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.13e-41
+Time:                        20:51:38   Log-Likelihood:                         -323.97
+No. Observations:                 537   AIC:                                      667.9
+Df Residuals:                     527   BIC:                                      710.8
+Df Model:                          10                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.1992      0.097      2.054      0.041       0.009       0.390
-SchoolRegion_1       -0.2431      0.084     -2.892      0.004      -0.408      -0.078
-SchoolRegion_2       -0.1470      0.057     -2.562      0.011      -0.260      -0.034
-SchoolType_1          0.1661      0.097      1.707      0.088      -0.025       0.357
-SchoolType_2          0.1754      0.080      2.187      0.029       0.018       0.333
-SchoolType_4          0.1045      0.046      2.266      0.024       0.014       0.195
-MotherEd_3           -0.1107      0.049     -2.255      0.025      -0.207      -0.014
-MotherEd_4           -0.1744      0.085     -2.048      0.041      -0.342      -0.007
-MotherEd_7           -0.1113      0.070     -1.587      0.113      -0.249       0.026
-PostulationType_1     0.2036      0.085      2.397      0.017       0.037       0.371
-==============================================================================
-Omnibus:                      206.105   Durbin-Watson:                   1.942
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               87.316
-Skew:                           0.830   Prob(JB):                     1.10e-19
-Kurtosis:                       1.929   Cond. No.                         11.5
+SchoolRegion_1        0.0696      0.059      1.178      0.239      -0.046       0.186
+SchoolRegion_2        0.2508      0.085      2.961      0.003       0.084       0.417
+SchoolRegion_3        0.1736      0.103      1.688      0.092      -0.028       0.376
+EdTypeCode_2          0.1696      0.102      1.660      0.098      -0.031       0.370
+SchoolType_2         -0.1106      0.045     -2.450      0.015      -0.199      -0.022
+MotherEd_3            0.1805      0.110      1.648      0.100      -0.035       0.396
+MotherEd_4            0.1128      0.042      2.695      0.007       0.031       0.195
+MotherEd_5            0.1090      0.066      1.656      0.098      -0.020       0.238
+MotherEd_7            0.2013      0.088      2.277      0.023       0.028       0.375
+PostulationType_1     0.1725      0.055      3.117      0.002       0.064       0.281
+==============================================================================
+Omnibus:                      195.579   Durbin-Watson:                   1.939
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               86.274
+Skew:                           0.827   Prob(JB):                     1.84e-19
+Kurtosis:                       1.941   Cond. No.                         8.87
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.047
-Model:                            OLS   Adj. R-squared:                  0.033
-Method:                 Least Squares   F-statistic:                     3.272
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00119
-Time:                        23:10:04   Log-Likelihood:                -327.92
-No. Observations:                 537   AIC:                             673.8
-Df Residuals:                     528   BIC:                             712.4
-Df Model:                           8                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.337
+Model:                            OLS   Adj. R-squared (uncentered):              0.326
+Method:                 Least Squares   F-statistic:                              29.87
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    3.93e-42
+Time:                        20:51:38   Log-Likelihood:                         -324.67
+No. Observations:                 537   AIC:                                      667.3
+Df Residuals:                     528   BIC:                                      705.9
+Df Model:                           9                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.2012      0.097      2.072      0.039       0.010       0.392
-SchoolRegion_1       -0.2501      0.084     -2.976      0.003      -0.415      -0.085
-SchoolRegion_2       -0.1520      0.057     -2.649      0.008      -0.265      -0.039
-SchoolType_1          0.1783      0.097      1.836      0.067      -0.012       0.369
-SchoolType_2          0.1853      0.080      2.314      0.021       0.028       0.343
-SchoolType_4          0.1079      0.046      2.338      0.020       0.017       0.199
-MotherEd_3           -0.0970      0.048     -2.005      0.046      -0.192      -0.002
-MotherEd_4           -0.1606      0.085     -1.893      0.059      -0.327       0.006
-PostulationType_1     0.1880      0.085      2.224      0.027       0.022       0.354
-==============================================================================
-Omnibus:                      211.909   Durbin-Watson:                   1.935
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               88.981
-Skew:                           0.839   Prob(JB):                     4.76e-20
-Kurtosis:                       1.923   Cond. No.                         11.4
+SchoolRegion_2        0.1926      0.069      2.798      0.005       0.057       0.328
+SchoolRegion_3        0.1126      0.089      1.266      0.206      -0.062       0.287
+EdTypeCode_2          0.1683      0.102      1.647      0.100      -0.032       0.369
+SchoolType_2         -0.1054      0.045     -2.344      0.019      -0.194      -0.017
+MotherEd_3            0.1866      0.109      1.706      0.089      -0.028       0.402
+MotherEd_4            0.1268      0.040      3.155      0.002       0.048       0.206
+MotherEd_5            0.1145      0.066      1.744      0.082      -0.014       0.244
+MotherEd_7            0.2113      0.088      2.400      0.017       0.038       0.384
+PostulationType_1     0.2270      0.030      7.492      0.000       0.168       0.287
+==============================================================================
+Omnibus:                      189.171   Durbin-Watson:                   1.944
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               85.313
+Skew:                           0.823   Prob(JB):                     2.98e-19
+Kurtosis:                       1.949   Cond. No.                         6.37
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.041
-Model:                            OLS   Adj. R-squared:                  0.028
-Method:                 Least Squares   F-statistic:                     3.243
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00222
-Time:                        23:10:04   Log-Likelihood:                -329.63
-No. Observations:                 537   AIC:                             675.3
-Df Residuals:                     529   BIC:                             709.5
-Df Model:                           7                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.335
+Model:                            OLS   Adj. R-squared (uncentered):              0.325
+Method:                 Least Squares   F-statistic:                              33.37
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.43e-42
+Time:                        20:51:38   Log-Likelihood:                         -325.49
+No. Observations:                 537   AIC:                                      667.0
+Df Residuals:                     529   BIC:                                      701.3
+Df Model:                           8                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.2167      0.097      2.235      0.026       0.026       0.407
-SchoolRegion_1       -0.2523      0.084     -2.995      0.003      -0.418      -0.087
-SchoolRegion_2       -0.1479      0.057     -2.574      0.010      -0.261      -0.035
-SchoolType_2          0.1565      0.079      1.989      0.047       0.002       0.311
-SchoolType_4          0.0786      0.043      1.811      0.071      -0.007       0.164
-MotherEd_3           -0.0876      0.048     -1.816      0.070      -0.182       0.007
-MotherEd_4           -0.1461      0.085     -1.726      0.085      -0.312       0.020
-PostulationType_1     0.1957      0.085      2.314      0.021       0.030       0.362
-==============================================================================
-Omnibus:                      233.291   Durbin-Watson:                   1.938
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               90.748
-Skew:                           0.844   Prob(JB):                     1.97e-20
-Kurtosis:                       1.901   Cond. No.                         11.4
+SchoolRegion_2        0.1870      0.069      2.721      0.007       0.052       0.322
+EdTypeCode_2          0.1627      0.102      1.592      0.112      -0.038       0.363
+SchoolType_2         -0.1014      0.045     -2.260      0.024      -0.190      -0.013
+MotherEd_3            0.1839      0.109      1.679      0.094      -0.031       0.399
+MotherEd_4            0.1305      0.040      3.255      0.001       0.052       0.209
+MotherEd_5            0.1167      0.066      1.776      0.076      -0.012       0.246
+MotherEd_7            0.2114      0.088      2.401      0.017       0.038       0.384
+PostulationType_1     0.2308      0.030      7.646      0.000       0.171       0.290
+==============================================================================
+Omnibus:                      196.415   Durbin-Watson:                   1.939
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               86.020
+Skew:                           0.825   Prob(JB):                     2.09e-19
+Kurtosis:                       1.940   Cond. No.                         6.37
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.036
-Model:                            OLS   Adj. R-squared:                  0.025
-Method:                 Least Squares   F-statistic:                     3.275
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00359
-Time:                        23:10:04   Log-Likelihood:                -331.13
-No. Observations:                 537   AIC:                             676.3
-Df Residuals:                     530   BIC:                             706.3
-Df Model:                           6                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.332
+Model:                            OLS   Adj. R-squared (uncentered):              0.323
+Method:                 Least Squares   F-statistic:                              37.66
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    7.71e-43
+Time:                        20:51:38   Log-Likelihood:                         -326.77
+No. Observations:                 537   AIC:                                      667.5
+Df Residuals:                     530   BIC:                                      697.5
+Df Model:                           7                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.2214      0.097      2.280      0.023       0.031       0.412
-SchoolRegion_1       -0.2538      0.084     -3.007      0.003      -0.420      -0.088
-SchoolRegion_2       -0.1491      0.058     -2.591      0.010      -0.262      -0.036
-SchoolType_2          0.1497      0.079      1.901      0.058      -0.005       0.304
-SchoolType_4          0.0727      0.043      1.678      0.094      -0.012       0.158
-MotherEd_3           -0.0750      0.048     -1.570      0.117      -0.169       0.019
-PostulationType_1     0.1843      0.084      2.181      0.030       0.018       0.350
-==============================================================================
-Omnibus:                      253.583   Durbin-Watson:                   1.935
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               92.520
-Skew:                           0.850   Prob(JB):                     8.12e-21
-Kurtosis:                       1.883   Cond. No.                         11.3
+SchoolRegion_2        0.1852      0.069      2.690      0.007       0.050       0.320
+SchoolType_2         -0.1021      0.045     -2.273      0.023      -0.190      -0.014
+MotherEd_3            0.1898      0.110      1.732      0.084      -0.026       0.405
+MotherEd_4            0.1364      0.040      3.411      0.001       0.058       0.215
+MotherEd_5            0.1138      0.066      1.731      0.084      -0.015       0.243
+MotherEd_7            0.2197      0.088      2.495      0.013       0.047       0.393
+PostulationType_1     0.2341      0.030      7.766      0.000       0.175       0.293
+==============================================================================
+Omnibus:                      204.549   Durbin-Watson:                   1.951
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               86.212
+Skew:                           0.823   Prob(JB):                     1.90e-19
+Kurtosis:                       1.930   Cond. No.                         6.33
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
   </si>
   <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.031
-Model:                            OLS   Adj. R-squared:                  0.022
-Method:                 Least Squares   F-statistic:                     3.428
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00466
-Time:                        23:10:04   Log-Likelihood:                -332.38
-No. Observations:                 537   AIC:                             676.8
-Df Residuals:                     531   BIC:                             702.5
-Df Model:                           5                                         
-Covariance Type:            nonrobust                                         
+    <t xml:space="preserve">                                 OLS Regression Results                                
+=======================================================================================
+Dep. Variable:               Desertor   R-squared (uncentered):                   0.325
+Model:                            OLS   Adj. R-squared (uncentered):              0.319
+Method:                 Least Squares   F-statistic:                              51.31
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    2.13e-43
+Time:                        20:51:38   Log-Likelihood:                         -329.52
+No. Observations:                 537   AIC:                                      669.0
+Df Residuals:                     532   BIC:                                      690.5
+Df Model:                           5                                                  
+Covariance Type:            nonrobust                                                  
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  0.2209      0.097      2.271      0.024       0.030       0.412
-SchoolRegion_1       -0.2459      0.084     -2.915      0.004      -0.412      -0.080
-SchoolRegion_2       -0.1417      0.057     -2.468      0.014      -0.255      -0.029
-SchoolType_2          0.1389      0.079      1.769      0.077      -0.015       0.293
-SchoolType_4          0.0636      0.043      1.478      0.140      -0.021       0.148
-PostulationType_1     0.1670      0.084      1.991      0.047       0.002       0.332
-==============================================================================
-Omnibus:                      261.834   Durbin-Watson:                   1.932
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               94.213
-Skew:                           0.859   Prob(JB):                     3.48e-21
-Kurtosis:                       1.877   Cond. No.                         11.2
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.027
-Model:                            OLS   Adj. R-squared:                  0.020
-Method:                 Least Squares   F-statistic:                     3.730
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00527
-Time:                        23:10:04   Log-Likelihood:                -333.48
-No. Observations:                 537   AIC:                             677.0
-Df Residuals:                     532   BIC:                             698.4
-Df Model:                           4                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  0.2551      0.095      2.698      0.007       0.069       0.441
-SchoolRegion_1       -0.2378      0.084     -2.822      0.005      -0.403      -0.072
-SchoolRegion_2       -0.1387      0.057     -2.414      0.016      -0.252      -0.026
-SchoolType_2          0.0964      0.073      1.318      0.188      -0.047       0.240
-PostulationType_1     0.1721      0.084      2.051      0.041       0.007       0.337
-==============================================================================
-Omnibus:                      271.153   Durbin-Watson:                   1.935
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               95.390
-Skew:                           0.864   Prob(JB):                     1.93e-21
-Kurtosis:                       1.870   Cond. No.                         10.4
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.024
-Model:                            OLS   Adj. R-squared:                  0.019
-Method:                 Least Squares   F-statistic:                     4.388
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):            0.00460
-Time:                        23:10:04   Log-Likelihood:                -334.36
-No. Observations:                 537   AIC:                             676.7
-Df Residuals:                     533   BIC:                             693.9
-Df Model:                           3                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  0.2623      0.094      2.777      0.006       0.077       0.448
-SchoolRegion_1       -0.2309      0.084     -2.744      0.006      -0.396      -0.066
-SchoolRegion_2       -0.1417      0.057     -2.467      0.014      -0.255      -0.029
-PostulationType_1     0.1743      0.084      2.076      0.038       0.009       0.339
-==============================================================================
-Omnibus:                      292.768   Durbin-Watson:                   1.938
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               96.020
-Skew:                           0.863   Prob(JB):                     1.41e-21
-Kurtosis:                       1.855   Cond. No.                         10.4
+SchoolRegion_2        0.1841      0.069      2.668      0.008       0.049       0.320
+SchoolType_2         -0.0910      0.044     -2.078      0.038      -0.177      -0.005
+MotherEd_4            0.1075      0.038      2.841      0.005       0.033       0.182
+MotherEd_7            0.1871      0.087      2.148      0.032       0.016       0.358
+PostulationType_1     0.2641      0.027      9.695      0.000       0.211       0.318
+==============================================================================
+Omnibus:                      218.997   Durbin-Watson:                   1.947
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               88.609
+Skew:                           0.834   Prob(JB):                     5.74e-20
+Kurtosis:                       1.915   Cond. No.                         4.94
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.</t>
@@ -1148,9 +1088,9 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1160,28 +1100,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>18</v>
@@ -1210,9 +1150,8 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1222,25 +1161,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>18</v>
@@ -1269,9 +1208,8 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1281,22 +1219,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -1325,8 +1263,8 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1336,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
@@ -1377,8 +1315,8 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1388,114 +1326,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="369.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="357" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="357" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="344.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1538,16 +1389,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -1624,16 +1475,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -1683,8 +1534,8 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="2"/>
@@ -1704,16 +1555,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
@@ -1763,9 +1614,9 @@
   <cols>
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1784,31 +1635,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>16</v>
@@ -1841,8 +1692,8 @@
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1852,37 +1703,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -1915,8 +1766,8 @@
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1926,34 +1777,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>16</v>
@@ -1997,31 +1848,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>16</v>
@@ -2054,8 +1905,8 @@
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -2065,28 +1916,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>16</v>

--- a/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB2A500-0534-4767-857A-44D3378C3A88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AEA5AC-4CCC-4ED3-9A55-5EFA54D66C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 Model:                            OLS   Adj. R-squared:                  0.033
 Method:                 Least Squares   F-statistic:                     2.019
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):            0.00780
-Time:                        20:51:38   Log-Likelihood:                -322.70
+Time:                        20:59:40   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             683.4
 Df Residuals:                     518   BIC:                             764.8
 Df Model:                          18                                         
@@ -144,7 +144,7 @@
 Model:                            OLS   Adj. R-squared:                  0.035
 Method:                 Least Squares   F-statistic:                     2.142
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):            0.00504
-Time:                        20:51:38   Log-Likelihood:                -322.70
+Time:                        20:59:40   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             681.4
 Df Residuals:                     519   BIC:                             758.6
 Df Model:                          17                                         
@@ -186,7 +186,7 @@
 Model:                            OLS   Adj. R-squared:                  0.037
 Method:                 Least Squares   F-statistic:                     2.280
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):            0.00316
-Time:                        20:51:38   Log-Likelihood:                -322.71
+Time:                        20:59:40   Log-Likelihood:                -322.71
 No. Observations:                 537   AIC:                             679.4
 Df Residuals:                     520   BIC:                             752.3
 Df Model:                          16                                         
@@ -227,7 +227,7 @@
 Model:                            OLS   Adj. R-squared:                  0.039
 Method:                 Least Squares   F-statistic:                     2.434
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):            0.00194
-Time:                        20:51:38   Log-Likelihood:                -322.73
+Time:                        20:59:40   Log-Likelihood:                -322.73
 No. Observations:                 537   AIC:                             677.5
 Df Residuals:                     521   BIC:                             746.0
 Df Model:                          15                                         
@@ -267,7 +267,7 @@
 Model:                            OLS   Adj. R-squared:                  0.040
 Method:                 Least Squares   F-statistic:                     2.607
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):            0.00117
-Time:                        20:51:38   Log-Likelihood:                -322.77
+Time:                        20:59:40   Log-Likelihood:                -322.77
 No. Observations:                 537   AIC:                             675.5
 Df Residuals:                     522   BIC:                             739.8
 Df Model:                          14                                         
@@ -306,7 +306,7 @@
 Model:                            OLS   Adj. R-squared:                  0.042
 Method:                 Least Squares   F-statistic:                     2.790
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           0.000727
-Time:                        20:51:38   Log-Likelihood:                -322.91
+Time:                        20:59:40   Log-Likelihood:                -322.91
 No. Observations:                 537   AIC:                             673.8
 Df Residuals:                     523   BIC:                             733.8
 Df Model:                          13                                         
@@ -344,7 +344,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.325
 Method:                 Least Squares   F-statistic:                              20.89
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    6.53e-40
-Time:                        20:51:38   Log-Likelihood:                         -323.08
+Time:                        20:59:40   Log-Likelihood:                         -323.08
 No. Observations:                 537   AIC:                                      672.2
 Df Residuals:                     524   BIC:                                      727.9
 Df Model:                          13                                                  
@@ -381,7 +381,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.326
 Method:                 Least Squares   F-statistic:                              22.63
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.56e-40
-Time:                        20:51:38   Log-Likelihood:                         -323.24
+Time:                        20:59:40   Log-Likelihood:                         -323.24
 No. Observations:                 537   AIC:                                      670.5
 Df Residuals:                     525   BIC:                                      721.9
 Df Model:                          12                                                  
@@ -417,7 +417,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.327
 Method:                 Least Squares   F-statistic:                              24.70
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    3.40e-41
-Time:                        20:51:38   Log-Likelihood:                         -323.36
+Time:                        20:59:40   Log-Likelihood:                         -323.36
 No. Observations:                 537   AIC:                                      668.7
 Df Residuals:                     526   BIC:                                      715.9
 Df Model:                          11                                                  
@@ -452,7 +452,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.327
 Method:                 Least Squares   F-statistic:                              27.04
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.13e-41
-Time:                        20:51:38   Log-Likelihood:                         -323.97
+Time:                        20:59:40   Log-Likelihood:                         -323.97
 No. Observations:                 537   AIC:                                      667.9
 Df Residuals:                     527   BIC:                                      710.8
 Df Model:                          10                                                  
@@ -486,7 +486,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.326
 Method:                 Least Squares   F-statistic:                              29.87
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    3.93e-42
-Time:                        20:51:38   Log-Likelihood:                         -324.67
+Time:                        20:59:40   Log-Likelihood:                         -324.67
 No. Observations:                 537   AIC:                                      667.3
 Df Residuals:                     528   BIC:                                      705.9
 Df Model:                           9                                                  
@@ -519,7 +519,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.325
 Method:                 Least Squares   F-statistic:                              33.37
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.43e-42
-Time:                        20:51:38   Log-Likelihood:                         -325.49
+Time:                        20:59:40   Log-Likelihood:                         -325.49
 No. Observations:                 537   AIC:                                      667.0
 Df Residuals:                     529   BIC:                                      701.3
 Df Model:                           8                                                  
@@ -551,7 +551,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.323
 Method:                 Least Squares   F-statistic:                              37.66
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    7.71e-43
-Time:                        20:51:38   Log-Likelihood:                         -326.77
+Time:                        20:59:40   Log-Likelihood:                         -326.77
 No. Observations:                 537   AIC:                                      667.5
 Df Residuals:                     530   BIC:                                      697.5
 Df Model:                           7                                                  
@@ -582,7 +582,7 @@
 Model:                            OLS   Adj. R-squared (uncentered):              0.319
 Method:                 Least Squares   F-statistic:                              51.31
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    2.13e-43
-Time:                        20:51:38   Log-Likelihood:                         -329.52
+Time:                        20:59:40   Log-Likelihood:                         -329.52
 No. Observations:                 537   AIC:                                      669.0
 Df Residuals:                     532   BIC:                                      690.5
 Df Model:                           5                                                  

--- a/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AEA5AC-4CCC-4ED3-9A55-5EFA54D66C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A005367A-B691-4550-AA60-5ED95CC9829F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,8 +100,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.033
 Method:                 Least Squares   F-statistic:                     2.019
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):            0.00780
-Time:                        20:59:40   Log-Likelihood:                -322.70
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):            0.00780
+Time:                        16:11:07   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             683.4
 Df Residuals:                     518   BIC:                             764.8
 Df Model:                          18                                         
@@ -143,8 +143,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.035
 Method:                 Least Squares   F-statistic:                     2.142
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):            0.00504
-Time:                        20:59:40   Log-Likelihood:                -322.70
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):            0.00504
+Time:                        16:11:07   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             681.4
 Df Residuals:                     519   BIC:                             758.6
 Df Model:                          17                                         
@@ -185,8 +185,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.037
 Method:                 Least Squares   F-statistic:                     2.280
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):            0.00316
-Time:                        20:59:40   Log-Likelihood:                -322.71
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):            0.00316
+Time:                        16:11:07   Log-Likelihood:                -322.71
 No. Observations:                 537   AIC:                             679.4
 Df Residuals:                     520   BIC:                             752.3
 Df Model:                          16                                         
@@ -226,8 +226,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.039
 Method:                 Least Squares   F-statistic:                     2.434
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):            0.00194
-Time:                        20:59:40   Log-Likelihood:                -322.73
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):            0.00194
+Time:                        16:11:07   Log-Likelihood:                -322.73
 No. Observations:                 537   AIC:                             677.5
 Df Residuals:                     521   BIC:                             746.0
 Df Model:                          15                                         
@@ -266,8 +266,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.040
 Method:                 Least Squares   F-statistic:                     2.607
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):            0.00117
-Time:                        20:59:40   Log-Likelihood:                -322.77
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):            0.00117
+Time:                        16:11:07   Log-Likelihood:                -322.77
 No. Observations:                 537   AIC:                             675.5
 Df Residuals:                     522   BIC:                             739.8
 Df Model:                          14                                         
@@ -305,8 +305,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.042
 Method:                 Least Squares   F-statistic:                     2.790
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           0.000727
-Time:                        20:59:40   Log-Likelihood:                -322.91
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           0.000727
+Time:                        16:11:07   Log-Likelihood:                -322.91
 No. Observations:                 537   AIC:                             673.8
 Df Residuals:                     523   BIC:                             733.8
 Df Model:                          13                                         
@@ -343,8 +343,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
 Model:                            OLS   Adj. R-squared (uncentered):              0.325
 Method:                 Least Squares   F-statistic:                              20.89
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    6.53e-40
-Time:                        20:59:40   Log-Likelihood:                         -323.08
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    6.53e-40
+Time:                        16:11:07   Log-Likelihood:                         -323.08
 No. Observations:                 537   AIC:                                      672.2
 Df Residuals:                     524   BIC:                                      727.9
 Df Model:                          13                                                  
@@ -380,8 +380,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
 Model:                            OLS   Adj. R-squared (uncentered):              0.326
 Method:                 Least Squares   F-statistic:                              22.63
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.56e-40
-Time:                        20:59:40   Log-Likelihood:                         -323.24
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.56e-40
+Time:                        16:11:07   Log-Likelihood:                         -323.24
 No. Observations:                 537   AIC:                                      670.5
 Df Residuals:                     525   BIC:                                      721.9
 Df Model:                          12                                                  
@@ -416,8 +416,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
 Model:                            OLS   Adj. R-squared (uncentered):              0.327
 Method:                 Least Squares   F-statistic:                              24.70
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    3.40e-41
-Time:                        20:59:40   Log-Likelihood:                         -323.36
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    3.40e-41
+Time:                        16:11:07   Log-Likelihood:                         -323.36
 No. Observations:                 537   AIC:                                      668.7
 Df Residuals:                     526   BIC:                                      715.9
 Df Model:                          11                                                  
@@ -451,8 +451,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.339
 Model:                            OLS   Adj. R-squared (uncentered):              0.327
 Method:                 Least Squares   F-statistic:                              27.04
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.13e-41
-Time:                        20:59:40   Log-Likelihood:                         -323.97
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.13e-41
+Time:                        16:11:07   Log-Likelihood:                         -323.97
 No. Observations:                 537   AIC:                                      667.9
 Df Residuals:                     527   BIC:                                      710.8
 Df Model:                          10                                                  
@@ -485,8 +485,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.337
 Model:                            OLS   Adj. R-squared (uncentered):              0.326
 Method:                 Least Squares   F-statistic:                              29.87
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    3.93e-42
-Time:                        20:59:40   Log-Likelihood:                         -324.67
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    3.93e-42
+Time:                        16:11:07   Log-Likelihood:                         -324.67
 No. Observations:                 537   AIC:                                      667.3
 Df Residuals:                     528   BIC:                                      705.9
 Df Model:                           9                                                  
@@ -518,8 +518,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.335
 Model:                            OLS   Adj. R-squared (uncentered):              0.325
 Method:                 Least Squares   F-statistic:                              33.37
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    1.43e-42
-Time:                        20:59:40   Log-Likelihood:                         -325.49
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.43e-42
+Time:                        16:11:07   Log-Likelihood:                         -325.49
 No. Observations:                 537   AIC:                                      667.0
 Df Residuals:                     529   BIC:                                      701.3
 Df Model:                           8                                                  
@@ -550,8 +550,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.332
 Model:                            OLS   Adj. R-squared (uncentered):              0.323
 Method:                 Least Squares   F-statistic:                              37.66
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    7.71e-43
-Time:                        20:59:40   Log-Likelihood:                         -326.77
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    7.71e-43
+Time:                        16:11:07   Log-Likelihood:                         -326.77
 No. Observations:                 537   AIC:                                      667.5
 Df Residuals:                     530   BIC:                                      697.5
 Df Model:                           7                                                  
@@ -581,8 +581,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.325
 Model:                            OLS   Adj. R-squared (uncentered):              0.319
 Method:                 Least Squares   F-statistic:                              51.31
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):                    2.13e-43
-Time:                        20:59:40   Log-Likelihood:                         -329.52
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    2.13e-43
+Time:                        16:11:07   Log-Likelihood:                         -329.52
 No. Observations:                 537   AIC:                                      669.0
 Df Residuals:                     532   BIC:                                      690.5
 Df Model:                           5                                                  

--- a/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A005367A-B691-4550-AA60-5ED95CC9829F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E240F-A897-46BA-848E-E1A96757D52E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,8 +100,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.033
 Method:                 Least Squares   F-statistic:                     2.019
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):            0.00780
-Time:                        16:11:07   Log-Likelihood:                -322.70
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):            0.00780
+Time:                        23:18:45   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             683.4
 Df Residuals:                     518   BIC:                             764.8
 Df Model:                          18                                         
@@ -143,8 +143,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.035
 Method:                 Least Squares   F-statistic:                     2.142
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):            0.00504
-Time:                        16:11:07   Log-Likelihood:                -322.70
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):            0.00504
+Time:                        23:18:45   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             681.4
 Df Residuals:                     519   BIC:                             758.6
 Df Model:                          17                                         
@@ -185,8 +185,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.037
 Method:                 Least Squares   F-statistic:                     2.280
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):            0.00316
-Time:                        16:11:07   Log-Likelihood:                -322.71
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):            0.00316
+Time:                        23:18:45   Log-Likelihood:                -322.71
 No. Observations:                 537   AIC:                             679.4
 Df Residuals:                     520   BIC:                             752.3
 Df Model:                          16                                         
@@ -226,8 +226,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.039
 Method:                 Least Squares   F-statistic:                     2.434
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):            0.00194
-Time:                        16:11:07   Log-Likelihood:                -322.73
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):            0.00194
+Time:                        23:18:45   Log-Likelihood:                -322.73
 No. Observations:                 537   AIC:                             677.5
 Df Residuals:                     521   BIC:                             746.0
 Df Model:                          15                                         
@@ -266,8 +266,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.040
 Method:                 Least Squares   F-statistic:                     2.607
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):            0.00117
-Time:                        16:11:07   Log-Likelihood:                -322.77
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):            0.00117
+Time:                        23:18:45   Log-Likelihood:                -322.77
 No. Observations:                 537   AIC:                             675.5
 Df Residuals:                     522   BIC:                             739.8
 Df Model:                          14                                         
@@ -305,8 +305,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.042
 Method:                 Least Squares   F-statistic:                     2.790
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           0.000727
-Time:                        16:11:07   Log-Likelihood:                -322.91
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           0.000727
+Time:                        23:18:45   Log-Likelihood:                -322.91
 No. Observations:                 537   AIC:                             673.8
 Df Residuals:                     523   BIC:                             733.8
 Df Model:                          13                                         
@@ -343,8 +343,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
 Model:                            OLS   Adj. R-squared (uncentered):              0.325
 Method:                 Least Squares   F-statistic:                              20.89
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    6.53e-40
-Time:                        16:11:07   Log-Likelihood:                         -323.08
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    6.53e-40
+Time:                        23:18:45   Log-Likelihood:                         -323.08
 No. Observations:                 537   AIC:                                      672.2
 Df Residuals:                     524   BIC:                                      727.9
 Df Model:                          13                                                  
@@ -380,8 +380,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
 Model:                            OLS   Adj. R-squared (uncentered):              0.326
 Method:                 Least Squares   F-statistic:                              22.63
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.56e-40
-Time:                        16:11:07   Log-Likelihood:                         -323.24
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.56e-40
+Time:                        23:18:45   Log-Likelihood:                         -323.24
 No. Observations:                 537   AIC:                                      670.5
 Df Residuals:                     525   BIC:                                      721.9
 Df Model:                          12                                                  
@@ -416,8 +416,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
 Model:                            OLS   Adj. R-squared (uncentered):              0.327
 Method:                 Least Squares   F-statistic:                              24.70
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    3.40e-41
-Time:                        16:11:07   Log-Likelihood:                         -323.36
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    3.40e-41
+Time:                        23:18:45   Log-Likelihood:                         -323.36
 No. Observations:                 537   AIC:                                      668.7
 Df Residuals:                     526   BIC:                                      715.9
 Df Model:                          11                                                  
@@ -451,8 +451,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.339
 Model:                            OLS   Adj. R-squared (uncentered):              0.327
 Method:                 Least Squares   F-statistic:                              27.04
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.13e-41
-Time:                        16:11:07   Log-Likelihood:                         -323.97
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.13e-41
+Time:                        23:18:46   Log-Likelihood:                         -323.97
 No. Observations:                 537   AIC:                                      667.9
 Df Residuals:                     527   BIC:                                      710.8
 Df Model:                          10                                                  
@@ -485,8 +485,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.337
 Model:                            OLS   Adj. R-squared (uncentered):              0.326
 Method:                 Least Squares   F-statistic:                              29.87
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    3.93e-42
-Time:                        16:11:07   Log-Likelihood:                         -324.67
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    3.93e-42
+Time:                        23:18:46   Log-Likelihood:                         -324.67
 No. Observations:                 537   AIC:                                      667.3
 Df Residuals:                     528   BIC:                                      705.9
 Df Model:                           9                                                  
@@ -518,8 +518,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.335
 Model:                            OLS   Adj. R-squared (uncentered):              0.325
 Method:                 Least Squares   F-statistic:                              33.37
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    1.43e-42
-Time:                        16:11:07   Log-Likelihood:                         -325.49
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.43e-42
+Time:                        23:18:46   Log-Likelihood:                         -325.49
 No. Observations:                 537   AIC:                                      667.0
 Df Residuals:                     529   BIC:                                      701.3
 Df Model:                           8                                                  
@@ -550,8 +550,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.332
 Model:                            OLS   Adj. R-squared (uncentered):              0.323
 Method:                 Least Squares   F-statistic:                              37.66
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    7.71e-43
-Time:                        16:11:07   Log-Likelihood:                         -326.77
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    7.71e-43
+Time:                        23:18:46   Log-Likelihood:                         -326.77
 No. Observations:                 537   AIC:                                      667.5
 Df Residuals:                     530   BIC:                                      697.5
 Df Model:                           7                                                  
@@ -581,8 +581,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.325
 Model:                            OLS   Adj. R-squared (uncentered):              0.319
 Method:                 Least Squares   F-statistic:                              51.31
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):                    2.13e-43
-Time:                        16:11:07   Log-Likelihood:                         -329.52
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    2.13e-43
+Time:                        23:18:46   Log-Likelihood:                         -329.52
 No. Observations:                 537   AIC:                                      669.0
 Df Residuals:                     532   BIC:                                      690.5
 Df Model:                           5                                                  

--- a/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E240F-A897-46BA-848E-E1A96757D52E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177D0BCD-BB95-4436-B579-6A0577E3DD41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="18" sheetId="1" r:id="rId1"/>
@@ -100,8 +100,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.033
 Method:                 Least Squares   F-statistic:                     2.019
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):            0.00780
-Time:                        23:18:45   Log-Likelihood:                -322.70
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):            0.00780
+Time:                        20:48:37   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             683.4
 Df Residuals:                     518   BIC:                             764.8
 Df Model:                          18                                         
@@ -143,8 +143,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.035
 Method:                 Least Squares   F-statistic:                     2.142
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):            0.00504
-Time:                        23:18:45   Log-Likelihood:                -322.70
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):            0.00504
+Time:                        20:48:37   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             681.4
 Df Residuals:                     519   BIC:                             758.6
 Df Model:                          17                                         
@@ -185,8 +185,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.037
 Method:                 Least Squares   F-statistic:                     2.280
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):            0.00316
-Time:                        23:18:45   Log-Likelihood:                -322.71
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):            0.00316
+Time:                        20:48:37   Log-Likelihood:                -322.71
 No. Observations:                 537   AIC:                             679.4
 Df Residuals:                     520   BIC:                             752.3
 Df Model:                          16                                         
@@ -226,8 +226,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.039
 Method:                 Least Squares   F-statistic:                     2.434
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):            0.00194
-Time:                        23:18:45   Log-Likelihood:                -322.73
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):            0.00194
+Time:                        20:48:37   Log-Likelihood:                -322.73
 No. Observations:                 537   AIC:                             677.5
 Df Residuals:                     521   BIC:                             746.0
 Df Model:                          15                                         
@@ -266,8 +266,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.040
 Method:                 Least Squares   F-statistic:                     2.607
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):            0.00117
-Time:                        23:18:45   Log-Likelihood:                -322.77
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):            0.00117
+Time:                        20:48:37   Log-Likelihood:                -322.77
 No. Observations:                 537   AIC:                             675.5
 Df Residuals:                     522   BIC:                             739.8
 Df Model:                          14                                         
@@ -305,8 +305,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.042
 Method:                 Least Squares   F-statistic:                     2.790
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           0.000727
-Time:                        23:18:45   Log-Likelihood:                -322.91
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           0.000727
+Time:                        20:48:37   Log-Likelihood:                -322.91
 No. Observations:                 537   AIC:                             673.8
 Df Residuals:                     523   BIC:                             733.8
 Df Model:                          13                                         
@@ -343,8 +343,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
 Model:                            OLS   Adj. R-squared (uncentered):              0.325
 Method:                 Least Squares   F-statistic:                              20.89
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    6.53e-40
-Time:                        23:18:45   Log-Likelihood:                         -323.08
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    6.53e-40
+Time:                        20:48:37   Log-Likelihood:                         -323.08
 No. Observations:                 537   AIC:                                      672.2
 Df Residuals:                     524   BIC:                                      727.9
 Df Model:                          13                                                  
@@ -380,8 +380,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
 Model:                            OLS   Adj. R-squared (uncentered):              0.326
 Method:                 Least Squares   F-statistic:                              22.63
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.56e-40
-Time:                        23:18:45   Log-Likelihood:                         -323.24
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.56e-40
+Time:                        20:48:37   Log-Likelihood:                         -323.24
 No. Observations:                 537   AIC:                                      670.5
 Df Residuals:                     525   BIC:                                      721.9
 Df Model:                          12                                                  
@@ -416,8 +416,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
 Model:                            OLS   Adj. R-squared (uncentered):              0.327
 Method:                 Least Squares   F-statistic:                              24.70
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    3.40e-41
-Time:                        23:18:45   Log-Likelihood:                         -323.36
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    3.40e-41
+Time:                        20:48:37   Log-Likelihood:                         -323.36
 No. Observations:                 537   AIC:                                      668.7
 Df Residuals:                     526   BIC:                                      715.9
 Df Model:                          11                                                  
@@ -451,8 +451,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.339
 Model:                            OLS   Adj. R-squared (uncentered):              0.327
 Method:                 Least Squares   F-statistic:                              27.04
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.13e-41
-Time:                        23:18:46   Log-Likelihood:                         -323.97
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.13e-41
+Time:                        20:48:37   Log-Likelihood:                         -323.97
 No. Observations:                 537   AIC:                                      667.9
 Df Residuals:                     527   BIC:                                      710.8
 Df Model:                          10                                                  
@@ -485,8 +485,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.337
 Model:                            OLS   Adj. R-squared (uncentered):              0.326
 Method:                 Least Squares   F-statistic:                              29.87
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    3.93e-42
-Time:                        23:18:46   Log-Likelihood:                         -324.67
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    3.93e-42
+Time:                        20:48:37   Log-Likelihood:                         -324.67
 No. Observations:                 537   AIC:                                      667.3
 Df Residuals:                     528   BIC:                                      705.9
 Df Model:                           9                                                  
@@ -518,8 +518,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.335
 Model:                            OLS   Adj. R-squared (uncentered):              0.325
 Method:                 Least Squares   F-statistic:                              33.37
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    1.43e-42
-Time:                        23:18:46   Log-Likelihood:                         -325.49
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.43e-42
+Time:                        20:48:37   Log-Likelihood:                         -325.49
 No. Observations:                 537   AIC:                                      667.0
 Df Residuals:                     529   BIC:                                      701.3
 Df Model:                           8                                                  
@@ -550,8 +550,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.332
 Model:                            OLS   Adj. R-squared (uncentered):              0.323
 Method:                 Least Squares   F-statistic:                              37.66
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    7.71e-43
-Time:                        23:18:46   Log-Likelihood:                         -326.77
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    7.71e-43
+Time:                        20:48:37   Log-Likelihood:                         -326.77
 No. Observations:                 537   AIC:                                      667.5
 Df Residuals:                     530   BIC:                                      697.5
 Df Model:                           7                                                  
@@ -581,8 +581,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.325
 Model:                            OLS   Adj. R-squared (uncentered):              0.319
 Method:                 Least Squares   F-statistic:                              51.31
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):                    2.13e-43
-Time:                        23:18:46   Log-Likelihood:                         -329.52
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    2.13e-43
+Time:                        20:48:37   Log-Likelihood:                         -329.52
 No. Observations:                 537   AIC:                                      669.0
 Df Residuals:                     532   BIC:                                      690.5
 Df Model:                           5                                                  

--- a/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177D0BCD-BB95-4436-B579-6A0577E3DD41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8885D2B5-350F-4933-82A3-FB4A12DF2253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,8 +100,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.033
 Method:                 Least Squares   F-statistic:                     2.019
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):            0.00780
-Time:                        20:48:37   Log-Likelihood:                -322.70
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):            0.00780
+Time:                        21:22:15   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             683.4
 Df Residuals:                     518   BIC:                             764.8
 Df Model:                          18                                         
@@ -143,8 +143,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.035
 Method:                 Least Squares   F-statistic:                     2.142
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):            0.00504
-Time:                        20:48:37   Log-Likelihood:                -322.70
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):            0.00504
+Time:                        21:22:15   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             681.4
 Df Residuals:                     519   BIC:                             758.6
 Df Model:                          17                                         
@@ -185,8 +185,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.037
 Method:                 Least Squares   F-statistic:                     2.280
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):            0.00316
-Time:                        20:48:37   Log-Likelihood:                -322.71
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):            0.00316
+Time:                        21:22:15   Log-Likelihood:                -322.71
 No. Observations:                 537   AIC:                             679.4
 Df Residuals:                     520   BIC:                             752.3
 Df Model:                          16                                         
@@ -226,8 +226,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.039
 Method:                 Least Squares   F-statistic:                     2.434
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):            0.00194
-Time:                        20:48:37   Log-Likelihood:                -322.73
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):            0.00194
+Time:                        21:22:15   Log-Likelihood:                -322.73
 No. Observations:                 537   AIC:                             677.5
 Df Residuals:                     521   BIC:                             746.0
 Df Model:                          15                                         
@@ -266,8 +266,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.040
 Method:                 Least Squares   F-statistic:                     2.607
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):            0.00117
-Time:                        20:48:37   Log-Likelihood:                -322.77
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):            0.00117
+Time:                        21:22:15   Log-Likelihood:                -322.77
 No. Observations:                 537   AIC:                             675.5
 Df Residuals:                     522   BIC:                             739.8
 Df Model:                          14                                         
@@ -305,8 +305,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.042
 Method:                 Least Squares   F-statistic:                     2.790
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           0.000727
-Time:                        20:48:37   Log-Likelihood:                -322.91
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           0.000727
+Time:                        21:22:15   Log-Likelihood:                -322.91
 No. Observations:                 537   AIC:                             673.8
 Df Residuals:                     523   BIC:                             733.8
 Df Model:                          13                                         
@@ -343,8 +343,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
 Model:                            OLS   Adj. R-squared (uncentered):              0.325
 Method:                 Least Squares   F-statistic:                              20.89
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    6.53e-40
-Time:                        20:48:37   Log-Likelihood:                         -323.08
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    6.53e-40
+Time:                        21:22:15   Log-Likelihood:                         -323.08
 No. Observations:                 537   AIC:                                      672.2
 Df Residuals:                     524   BIC:                                      727.9
 Df Model:                          13                                                  
@@ -380,8 +380,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
 Model:                            OLS   Adj. R-squared (uncentered):              0.326
 Method:                 Least Squares   F-statistic:                              22.63
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.56e-40
-Time:                        20:48:37   Log-Likelihood:                         -323.24
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.56e-40
+Time:                        21:22:15   Log-Likelihood:                         -323.24
 No. Observations:                 537   AIC:                                      670.5
 Df Residuals:                     525   BIC:                                      721.9
 Df Model:                          12                                                  
@@ -416,8 +416,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
 Model:                            OLS   Adj. R-squared (uncentered):              0.327
 Method:                 Least Squares   F-statistic:                              24.70
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    3.40e-41
-Time:                        20:48:37   Log-Likelihood:                         -323.36
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    3.40e-41
+Time:                        21:22:15   Log-Likelihood:                         -323.36
 No. Observations:                 537   AIC:                                      668.7
 Df Residuals:                     526   BIC:                                      715.9
 Df Model:                          11                                                  
@@ -451,8 +451,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.339
 Model:                            OLS   Adj. R-squared (uncentered):              0.327
 Method:                 Least Squares   F-statistic:                              27.04
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.13e-41
-Time:                        20:48:37   Log-Likelihood:                         -323.97
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.13e-41
+Time:                        21:22:15   Log-Likelihood:                         -323.97
 No. Observations:                 537   AIC:                                      667.9
 Df Residuals:                     527   BIC:                                      710.8
 Df Model:                          10                                                  
@@ -485,8 +485,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.337
 Model:                            OLS   Adj. R-squared (uncentered):              0.326
 Method:                 Least Squares   F-statistic:                              29.87
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    3.93e-42
-Time:                        20:48:37   Log-Likelihood:                         -324.67
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    3.93e-42
+Time:                        21:22:15   Log-Likelihood:                         -324.67
 No. Observations:                 537   AIC:                                      667.3
 Df Residuals:                     528   BIC:                                      705.9
 Df Model:                           9                                                  
@@ -518,8 +518,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.335
 Model:                            OLS   Adj. R-squared (uncentered):              0.325
 Method:                 Least Squares   F-statistic:                              33.37
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    1.43e-42
-Time:                        20:48:37   Log-Likelihood:                         -325.49
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.43e-42
+Time:                        21:22:15   Log-Likelihood:                         -325.49
 No. Observations:                 537   AIC:                                      667.0
 Df Residuals:                     529   BIC:                                      701.3
 Df Model:                           8                                                  
@@ -550,8 +550,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.332
 Model:                            OLS   Adj. R-squared (uncentered):              0.323
 Method:                 Least Squares   F-statistic:                              37.66
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    7.71e-43
-Time:                        20:48:37   Log-Likelihood:                         -326.77
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    7.71e-43
+Time:                        21:22:15   Log-Likelihood:                         -326.77
 No. Observations:                 537   AIC:                                      667.5
 Df Residuals:                     530   BIC:                                      697.5
 Df Model:                           7                                                  
@@ -581,8 +581,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.325
 Model:                            OLS   Adj. R-squared (uncentered):              0.319
 Method:                 Least Squares   F-statistic:                              51.31
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):                    2.13e-43
-Time:                        20:48:37   Log-Likelihood:                         -329.52
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    2.13e-43
+Time:                        21:22:15   Log-Likelihood:                         -329.52
 No. Observations:                 537   AIC:                                      669.0
 Df Residuals:                     532   BIC:                                      690.5
 Df Model:                           5                                                  

--- a/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cat_enroll_vs_Desertor/backwardElimination.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cat_enroll_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8885D2B5-350F-4933-82A3-FB4A12DF2253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C3EC21-7729-4244-8E3E-AD58A1FC24E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="18" sheetId="1" r:id="rId1"/>
@@ -100,8 +100,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.033
 Method:                 Least Squares   F-statistic:                     2.019
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):            0.00780
-Time:                        21:22:15   Log-Likelihood:                -322.70
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):            0.00780
+Time:                        19:07:20   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             683.4
 Df Residuals:                     518   BIC:                             764.8
 Df Model:                          18                                         
@@ -143,8 +143,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.035
 Method:                 Least Squares   F-statistic:                     2.142
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):            0.00504
-Time:                        21:22:15   Log-Likelihood:                -322.70
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):            0.00504
+Time:                        19:07:20   Log-Likelihood:                -322.70
 No. Observations:                 537   AIC:                             681.4
 Df Residuals:                     519   BIC:                             758.6
 Df Model:                          17                                         
@@ -185,8 +185,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.066
 Model:                            OLS   Adj. R-squared:                  0.037
 Method:                 Least Squares   F-statistic:                     2.280
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):            0.00316
-Time:                        21:22:15   Log-Likelihood:                -322.71
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):            0.00316
+Time:                        19:07:20   Log-Likelihood:                -322.71
 No. Observations:                 537   AIC:                             679.4
 Df Residuals:                     520   BIC:                             752.3
 Df Model:                          16                                         
@@ -226,8 +226,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.039
 Method:                 Least Squares   F-statistic:                     2.434
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):            0.00194
-Time:                        21:22:15   Log-Likelihood:                -322.73
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):            0.00194
+Time:                        19:07:20   Log-Likelihood:                -322.73
 No. Observations:                 537   AIC:                             677.5
 Df Residuals:                     521   BIC:                             746.0
 Df Model:                          15                                         
@@ -266,8 +266,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.040
 Method:                 Least Squares   F-statistic:                     2.607
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):            0.00117
-Time:                        21:22:15   Log-Likelihood:                -322.77
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):            0.00117
+Time:                        19:07:20   Log-Likelihood:                -322.77
 No. Observations:                 537   AIC:                             675.5
 Df Residuals:                     522   BIC:                             739.8
 Df Model:                          14                                         
@@ -305,8 +305,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.065
 Model:                            OLS   Adj. R-squared:                  0.042
 Method:                 Least Squares   F-statistic:                     2.790
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           0.000727
-Time:                        21:22:15   Log-Likelihood:                -322.91
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           0.000727
+Time:                        19:07:20   Log-Likelihood:                -322.91
 No. Observations:                 537   AIC:                             673.8
 Df Residuals:                     523   BIC:                             733.8
 Df Model:                          13                                         
@@ -343,8 +343,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
 Model:                            OLS   Adj. R-squared (uncentered):              0.325
 Method:                 Least Squares   F-statistic:                              20.89
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    6.53e-40
-Time:                        21:22:15   Log-Likelihood:                         -323.08
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    6.53e-40
+Time:                        19:07:20   Log-Likelihood:                         -323.08
 No. Observations:                 537   AIC:                                      672.2
 Df Residuals:                     524   BIC:                                      727.9
 Df Model:                          13                                                  
@@ -380,8 +380,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
 Model:                            OLS   Adj. R-squared (uncentered):              0.326
 Method:                 Least Squares   F-statistic:                              22.63
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.56e-40
-Time:                        21:22:15   Log-Likelihood:                         -323.24
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    1.56e-40
+Time:                        19:07:20   Log-Likelihood:                         -323.24
 No. Observations:                 537   AIC:                                      670.5
 Df Residuals:                     525   BIC:                                      721.9
 Df Model:                          12                                                  
@@ -416,8 +416,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.341
 Model:                            OLS   Adj. R-squared (uncentered):              0.327
 Method:                 Least Squares   F-statistic:                              24.70
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    3.40e-41
-Time:                        21:22:15   Log-Likelihood:                         -323.36
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    3.40e-41
+Time:                        19:07:20   Log-Likelihood:                         -323.36
 No. Observations:                 537   AIC:                                      668.7
 Df Residuals:                     526   BIC:                                      715.9
 Df Model:                          11                                                  
@@ -451,8 +451,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.339
 Model:                            OLS   Adj. R-squared (uncentered):              0.327
 Method:                 Least Squares   F-statistic:                              27.04
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.13e-41
-Time:                        21:22:15   Log-Likelihood:                         -323.97
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    1.13e-41
+Time:                        19:07:20   Log-Likelihood:                         -323.97
 No. Observations:                 537   AIC:                                      667.9
 Df Residuals:                     527   BIC:                                      710.8
 Df Model:                          10                                                  
@@ -485,8 +485,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.337
 Model:                            OLS   Adj. R-squared (uncentered):              0.326
 Method:                 Least Squares   F-statistic:                              29.87
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    3.93e-42
-Time:                        21:22:15   Log-Likelihood:                         -324.67
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    3.93e-42
+Time:                        19:07:20   Log-Likelihood:                         -324.67
 No. Observations:                 537   AIC:                                      667.3
 Df Residuals:                     528   BIC:                                      705.9
 Df Model:                           9                                                  
@@ -518,8 +518,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.335
 Model:                            OLS   Adj. R-squared (uncentered):              0.325
 Method:                 Least Squares   F-statistic:                              33.37
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    1.43e-42
-Time:                        21:22:15   Log-Likelihood:                         -325.49
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    1.43e-42
+Time:                        19:07:20   Log-Likelihood:                         -325.49
 No. Observations:                 537   AIC:                                      667.0
 Df Residuals:                     529   BIC:                                      701.3
 Df Model:                           8                                                  
@@ -550,8 +550,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.332
 Model:                            OLS   Adj. R-squared (uncentered):              0.323
 Method:                 Least Squares   F-statistic:                              37.66
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    7.71e-43
-Time:                        21:22:15   Log-Likelihood:                         -326.77
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    7.71e-43
+Time:                        19:07:20   Log-Likelihood:                         -326.77
 No. Observations:                 537   AIC:                                      667.5
 Df Residuals:                     530   BIC:                                      697.5
 Df Model:                           7                                                  
@@ -581,8 +581,8 @@
 Dep. Variable:               Desertor   R-squared (uncentered):                   0.325
 Model:                            OLS   Adj. R-squared (uncentered):              0.319
 Method:                 Least Squares   F-statistic:                              51.31
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):                    2.13e-43
-Time:                        21:22:15   Log-Likelihood:                         -329.52
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):                    2.13e-43
+Time:                        19:07:20   Log-Likelihood:                         -329.52
 No. Observations:                 537   AIC:                                      669.0
 Df Residuals:                     532   BIC:                                      690.5
 Df Model:                           5                                                  
